--- a/data/interim/output_links.xlsx
+++ b/data/interim/output_links.xlsx
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>

--- a/data/interim/output_links.xlsx
+++ b/data/interim/output_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Failed to connect</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Failed to connect</t>
         </is>
       </c>
     </row>
@@ -5885,6 +5885,1366 @@
         </is>
       </c>
       <c r="D273" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://www.arabstates.undp.org/content/content/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.bh.undp.org/content/bahrain/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.bd.undp.org/content/bangladesh/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.bb.undp.org/content/barbados/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.by.undp.org/content/belarus/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.bz.undp.org/content/belize/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Failed to connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.bt.undp.org/content/bhutan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.bw.undp.org/content/botswana/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://www.kh.undp.org/content/cambodia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.cm.undp.org/content/cameroon/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.cn.undp.org/content/china/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.ws.undp.org/content/samoa/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.dj.undp.org/content/djibouti/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://www.eg.undp.org/content/egypt/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.er.undp.org/content/eritrea/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.sz.undp.org/content/eswatini/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.et.undp.org/content/ethiopia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.gm.undp.org/content/gambia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.gh.undp.org/content/ghana/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.gw.undp.org/content/guinea_bissau/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.gy.undp.org/content/guyana/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.id.undp.org/content/indonesia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.ir.undp.org/content/iran/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.iq.undp.org/content/iraq/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.iicpsd.undp.org/content/ent/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.jm.undp.org/content/jamaica/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.jo.undp.org/content/nan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://www.kz.undp.org/content/kazakhstan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.la.undp.org/content/lao_pdr/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.kw.undp.org/content/nan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Failed to connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.kg.undp.org/content/kyrgyzstan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.la.undp.org/content/lao_pdr/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.ls.undp.org/content/lesotho/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.lr.undp.org/content/liberia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Failed to connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://www.ly.undp.org/content/libya/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.mw.undp.org/content/malawi/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://www.my.undp.org/content/malaysia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.mv.undp.org/content/maldives/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://www.mu.undp.org/content/mauritius_and_seychelles/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.mn.undp.org/content/mongolia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://www.mz.undp.org/content/mozambique/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.mm.undp.org/content/myanmar/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.na.undp.org/content/namibia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.ng.undp.org/content/nigeria/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.pacific.undp.org/content/tent/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.pk.undp.org/content/pakistan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.pg.undp.org/content/papua_new_guinea/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.ph.undp.org/content/philippines/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Failed to connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.ps.undp.org/content/papp/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Failed to connect</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.rw.undp.org/content/rwanda/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.sa.undp.org/content/saudi_arabia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.sl.undp.org/content/sierraleone/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.so.undp.org/content/somalia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.za.undp.org/content/south_africa/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.lk.undp.org/content/srilanka/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.sd.undp.org/content/sudan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.sr.undp.org/content/suriname/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.sy.undp.org/content/syria/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.tj.undp.org/content/tajikistan/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.tz.undp.org/content/tanzania/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.th.undp.org/content/thailand/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.tl.undp.org/content/timor_leste/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.tt.undp.org/content/trinidad_tobago/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.ug.undp.org/content/uganda/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.us.undp.org/content/washington/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.vn.undp.org/content/vietnam/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.ye.undp.org/content/yemen/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.zm.undp.org/content/zambia/en/home/learnmore.html?tagid=sdg-advisors%3Asdg16-peace-justice-and-strong-institutions</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>learn-more-page</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
         <is>
           <t>200</t>
         </is>
